--- a/data/file/05四川培训记录汇总表导入模板(寿险).xlsx
+++ b/data/file/05四川培训记录汇总表导入模板(寿险).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>VER:1.0.1</t>
   </si>
@@ -92,7 +92,7 @@
     <t>是</t>
   </si>
   <si>
-    <t>未完成</t>
+    <t>已完成</t>
   </si>
   <si>
     <t>431226199009250150</t>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
   <si>
     <t>431226199009250177</t>
@@ -170,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -205,28 +202,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,9 +244,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,37 +261,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,38 +314,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -347,8 +321,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +633,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -667,6 +679,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -680,22 +710,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,37 +729,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,133 +750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,7 +1294,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I8"/>
+      <selection activeCell="K4" sqref="K4:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
@@ -1471,7 +1468,7 @@
         <v>27</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L5" s="27">
         <v>44563</v>
@@ -1495,10 +1492,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>21</v>
@@ -1537,10 +1534,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>21</v>
@@ -1555,7 +1552,7 @@
         <v>27</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L7" s="27">
         <v>44563</v>
@@ -1579,10 +1576,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>21</v>
@@ -1597,7 +1594,7 @@
         <v>27</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L8" s="27">
         <v>44563</v>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1627,7 +1624,7 @@
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:16">
       <c r="A10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1656,6 +1653,9 @@
     <mergeCell ref="A10:N10"/>
   </mergeCells>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D4:D5 D6:D7">
+      <formula1>"身份证,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 J4 J5 J8 J6:J7 M9:M1048576">
       <formula1>zcy</formula1>
     </dataValidation>
@@ -1665,13 +1665,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H8 H6:H7">
       <formula1>"线下培训,线上培训"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K8 K6:K7">
-      <formula1>"未完成,已完成"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M4 M5 M8 M6:M7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D4:D5 D6:D7">
-      <formula1>"身份证,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K8">
+      <formula1>"未完成,已完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/file/05四川培训记录汇总表导入模板(寿险).xlsx
+++ b/data/file/05四川培训记录汇总表导入模板(寿险).xlsx
@@ -167,11 +167,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -202,22 +202,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,54 +258,70 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,26 +335,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,36 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -379,13 +379,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +451,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,157 +529,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,17 +632,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,25 +683,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,17 +708,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -715,16 +715,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -734,14 +734,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
@@ -1653,22 +1653,22 @@
     <mergeCell ref="A10:N10"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D4:D5 D6:D7">
-      <formula1>"身份证,其他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 J4 J5 J8 J6:J7 M9:M1048576">
       <formula1>zcy</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G5 G8 G6:G7">
       <formula1>"A类：基础销售执业合规培训,A+B类：新型人身险和商业非车险执业合规培训,B类：商业非车险执业合规培训,B类：新型人身险执业合规培训"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M4 M5 M8 M6:M7"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H8 H6:H7">
       <formula1>"线下培训,线上培训"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M4 M5 M8 M6:M7"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K8">
       <formula1>"未完成,已完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D4:D5 D6:D7">
+      <formula1>"身份证,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
